--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2025.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F9DBF-3F2A-4FF2-A366-0112514909B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A3AAD-E613-4721-A0D1-180E8A5EF55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="-9450" windowWidth="23250" windowHeight="12570" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="-10560" windowWidth="15750" windowHeight="9300" tabRatio="722" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13642,7 +13642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -53039,8 +53039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2025.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2A3AAD-E613-4721-A0D1-180E8A5EF55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713250D-4993-44E3-B515-04BFA6F7B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="-10560" windowWidth="15750" windowHeight="9300" tabRatio="722" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="-5625" windowWidth="17280" windowHeight="8970" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13642,7 +13642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -53039,7 +53039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D4FD3-4E6B-4832-B159-4E067DAE6C14}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
